--- a/medicine/Enfance/Alice_Vieira/Alice_Vieira.xlsx
+++ b/medicine/Enfance/Alice_Vieira/Alice_Vieira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alice de Jesus Vieira Vassalo Pereira de Fonseca, née le 20 mars 1943 à Lisbonne (Portugal), est une écrivaine et journaliste portugaise.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alice Vieira fait ses études en philosophie germanique à l'Université de Lisbonne. À partir de 1969, elle se lance dans le journalisme professionnel en travaillant pour les journaux : Diário de Lisboa, Diário Popular et Diário de Notícias. Elle a travaillé dans plusieurs programmes télévisés pour les enfants. Elle publie son premier livre intitulé "Rosa, Minha Irmã Rosa" en 1979, et elle reçoit le Prix de la Littérature de Jeunesse pour ce dernier. En 1983, elle reçoit avec Este Rei que Eu Escolhi le Prix Calouste Gulbenkian de Littérature de jeunesse et en 2007, le Prix Maria Amália Vaz de Carvalho avec son recueil de poèmes Dois corpos tombados na Água. Sa nouvelle intitulée Os Olhos de Ana Marta a été citée sur la liste d'honneur d'IBBY (Centre National de la Littérature pour Jeunesse).
 Ses œuvres ont été traduites dans plusieurs langues : en français, en allemand, en russe, en hollandais, en italien, en chinois...
@@ -543,7 +557,9 @@
           <t>Quelques œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1979 : Rosa, Minha Irmã Rosa
 1982 : Chocolate e Chuva
@@ -579,7 +595,9 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix de la Littérature de Jeunesse, pour Rosa, Minha Irmã Rosa (1979)
 Prix Calouste Gulbenkian de Littérature de jeunesse, pour Este Rei que Eu Escolhi (1983)
